--- a/branches/update-technical-section-in-index-page/ValueSet-vs-hiv-death.xlsx
+++ b/branches/update-technical-section-in-index-page/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:01:01+00:00</t>
+    <t>2023-02-27T10:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
